--- a/github-to-gitlab.xlsx
+++ b/github-to-gitlab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\github-gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1F473D-43DC-483D-AD49-25E8BA0F30CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26444739-44C4-4952-A5B9-8C6306C80867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>sr</t>
   </si>
@@ -47,19 +47,22 @@
     <t>gitlab_target_namespace</t>
   </si>
   <si>
-    <t>varun1699sharma</t>
-  </si>
-  <si>
-    <t>python-1</t>
-  </si>
-  <si>
-    <t>repository1699/python</t>
-  </si>
-  <si>
-    <t>terraform-1</t>
-  </si>
-  <si>
-    <t>repository1699/terraform</t>
+    <t>vinayhegde105</t>
+  </si>
+  <si>
+    <t>snyk</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>kafka-docker-nodejs</t>
+  </si>
+  <si>
+    <t>vth1/python3</t>
+  </si>
+  <si>
+    <t>vth1/kafka</t>
   </si>
 </sst>
 </file>
@@ -426,16 +429,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,21 +454,21 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -476,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/github-to-gitlab.xlsx
+++ b/github-to-gitlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\github-gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26444739-44C4-4952-A5B9-8C6306C80867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2A618-B6FE-49AC-9FF3-081608936314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>sr</t>
   </si>
@@ -47,22 +47,19 @@
     <t>gitlab_target_namespace</t>
   </si>
   <si>
-    <t>vinayhegde105</t>
-  </si>
-  <si>
-    <t>snyk</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>kafka-docker-nodejs</t>
-  </si>
-  <si>
     <t>vth1/python3</t>
   </si>
   <si>
     <t>vth1/kafka</t>
+  </si>
+  <si>
+    <t>pre-commit</t>
+  </si>
+  <si>
+    <t>golang</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
 </sst>
 </file>
@@ -459,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -473,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/github-to-gitlab.xlsx
+++ b/github-to-gitlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\github-gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2A618-B6FE-49AC-9FF3-081608936314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB02F4C-5A17-45E8-A038-E48C4A2F156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>sr</t>
   </si>
@@ -53,13 +53,16 @@
     <t>vth1/kafka</t>
   </si>
   <si>
-    <t>pre-commit</t>
-  </si>
-  <si>
-    <t>golang</t>
-  </si>
-  <si>
-    <t>go</t>
+    <t>machulav</t>
+  </si>
+  <si>
+    <t>ec2-github-runner</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>actions-runner-controller</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -470,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>

--- a/github-to-gitlab.xlsx
+++ b/github-to-gitlab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsharma\Desktop\version control excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620D662-3B63-426C-BDEA-550DACA6838F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51714AA8-AB14-4371-A50E-AC06D1351A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>sr</t>
   </si>
@@ -50,25 +50,28 @@
     <t>repository1699/python</t>
   </si>
   <si>
-    <t>repository1699/terraform</t>
-  </si>
-  <si>
-    <t>swathisabhahit</t>
-  </si>
-  <si>
     <t>the-example-app.nodejs</t>
   </si>
   <si>
-    <t>dtan4</t>
-  </si>
-  <si>
-    <t>terraforming</t>
-  </si>
-  <si>
-    <t>varun1699sharma</t>
-  </si>
-  <si>
     <t>online-test</t>
+  </si>
+  <si>
+    <t>vinayhegde105</t>
+  </si>
+  <si>
+    <t>hashicorp</t>
+  </si>
+  <si>
+    <t>learn-terraform-aws-control-tower-aft</t>
+  </si>
+  <si>
+    <t>vth1/vth1</t>
+  </si>
+  <si>
+    <t>vth1/migration-logs</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -432,19 +435,19 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,21 +463,21 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -485,18 +488,18 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>

--- a/github-to-gitlab.xlsx
+++ b/github-to-gitlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51714AA8-AB14-4371-A50E-AC06D1351A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C9036-F5B2-435F-956A-655CB157BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>sr</t>
   </si>
@@ -47,31 +47,22 @@
     <t>gitlab_target_namespace</t>
   </si>
   <si>
-    <t>repository1699/python</t>
-  </si>
-  <si>
-    <t>the-example-app.nodejs</t>
-  </si>
-  <si>
-    <t>online-test</t>
-  </si>
-  <si>
     <t>vinayhegde105</t>
   </si>
   <si>
-    <t>hashicorp</t>
-  </si>
-  <si>
-    <t>learn-terraform-aws-control-tower-aft</t>
-  </si>
-  <si>
     <t>vth1/vth1</t>
   </si>
   <si>
-    <t>vth1/migration-logs</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>swathisabhahit</t>
+  </si>
+  <si>
+    <t>flyway-pipelines</t>
+  </si>
+  <si>
+    <t>ngnix_argo</t>
+  </si>
+  <si>
+    <t>vth1/test4</t>
   </si>
 </sst>
 </file>
@@ -432,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5788E7F9-ABD1-47BD-BF02-58934DF99235}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,13 +459,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -482,27 +473,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
